--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BCpUC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="BCpUC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>$/kW</t>
   </si>
@@ -155,9 +160,6 @@
     </r>
   </si>
   <si>
-    <t>do not wish to capture).then curve fit the remaining years to get values for 2010 through 2050.</t>
-  </si>
-  <si>
     <t>We curve fit the 2018-2030 data, which nicely matches a second-order polynomial, and use this</t>
   </si>
   <si>
@@ -168,12 +170,24 @@
   </si>
   <si>
     <t>in maximum battery usage rate.</t>
+  </si>
+  <si>
+    <t>do not wish to capture). Then curve fit the remaining years to get values for 2010 through 2050.</t>
+  </si>
+  <si>
+    <t>Used to calculate battery storage deployment. Only the first year of this time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input variable is used, and the remaining years are handled via endogenous </t>
+  </si>
+  <si>
+    <t>learning.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -391,12 +405,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -588,6 +605,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A29-436B-B23F-B2D260961CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -772,562 +794,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1086,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1628,13 +1094,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,18 +1178,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1738,12 +1224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,22 +1256,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2214,7 +1702,7 @@
         <v>2010</v>
       </c>
       <c r="C60" s="14">
-        <f>A60*About!$A$19</f>
+        <f>A60*About!$A$23</f>
         <v>636.16499999999996</v>
       </c>
     </row>
@@ -2226,7 +1714,7 @@
         <v>2010</v>
       </c>
       <c r="C61" s="14">
-        <f>A61*About!$A$19</f>
+        <f>A61*About!$A$23</f>
         <v>821.84499999999991</v>
       </c>
     </row>
@@ -2238,7 +1726,7 @@
         <v>2010</v>
       </c>
       <c r="C62" s="14">
-        <f>A62*About!$A$19</f>
+        <f>A62*About!$A$23</f>
         <v>750.1049999999999</v>
       </c>
     </row>
@@ -2250,7 +1738,7 @@
         <v>2010</v>
       </c>
       <c r="C63" s="14">
-        <f>A63*About!$A$19</f>
+        <f>A63*About!$A$23</f>
         <v>745.88499999999999</v>
       </c>
     </row>
@@ -2262,7 +1750,7 @@
         <v>2010</v>
       </c>
       <c r="C64" s="14">
-        <f>A64*About!$A$19</f>
+        <f>A64*About!$A$23</f>
         <v>672.03499999999997</v>
       </c>
     </row>
@@ -2297,7 +1785,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,8 +2360,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B0A74C-997C-45AC-9EF3-E33C93D03C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="8" yWindow="45" windowWidth="15502" windowHeight="9878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="BCpUC" sheetId="3" r:id="rId3"/>
+    <sheet name="Balance of System Calculations" sheetId="5" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId3"/>
+    <sheet name="BCpUC" sheetId="3" r:id="rId4"/>
+    <sheet name="BBoSCpUC" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>$/kW</t>
   </si>
@@ -183,15 +196,142 @@
   <si>
     <t>learning.</t>
   </si>
+  <si>
+    <t>BCpUC Battery Balance of System Cost per Unit Capacity</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Balance of System</t>
+  </si>
+  <si>
+    <t>Balance of System Costs</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>2018 U.S. Utility-Scale Photovoltaics Plus-Energy Storage System Costs Benchmark</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy19osti/71714.pdf</t>
+  </si>
+  <si>
+    <t>Page 12, Table 3</t>
+  </si>
+  <si>
+    <t>Table 3. Detailed Cost Breakdown for a 60-MW U.S. Li-ion Standalone Storage System with Durations of 0.5–4 Hours</t>
+  </si>
+  <si>
+    <t>60-MW, 4-hour Duration, 240-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 2-hour Duration, 120-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 1-hour Duration, 60-MWh</t>
+  </si>
+  <si>
+    <t>60-MW, 0.5-hour Duration, 30-MWh</t>
+  </si>
+  <si>
+    <t>Model Component</t>
+  </si>
+  <si>
+    <t>Total Cost ($)</t>
+  </si>
+  <si>
+    <t>$/W</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Li-ion battery</t>
+  </si>
+  <si>
+    <t>Battery central inverter</t>
+  </si>
+  <si>
+    <t>Structural BOS</t>
+  </si>
+  <si>
+    <t>Electrical BOS</t>
+  </si>
+  <si>
+    <t>Installation labor &amp; equipment</t>
+  </si>
+  <si>
+    <t>EPC overhead</t>
+  </si>
+  <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>∑ EPC cost</t>
+  </si>
+  <si>
+    <t>Land acquisition</t>
+  </si>
+  <si>
+    <t>Permitting fee</t>
+  </si>
+  <si>
+    <t>Interconnection fee</t>
+  </si>
+  <si>
+    <t>Contingency</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>EPC/developer net profit</t>
+  </si>
+  <si>
+    <t>∑ Developer cost</t>
+  </si>
+  <si>
+    <t>We use the largest (4-hour duration) for our estimate.</t>
+  </si>
+  <si>
+    <t>Balance of System (excl. sales tax)</t>
+  </si>
+  <si>
+    <t>2018 $/W</t>
+  </si>
+  <si>
+    <t>Sales tax on balance of system elements</t>
+  </si>
+  <si>
+    <t>2018 $/MW</t>
+  </si>
+  <si>
+    <t>2012 $/MW</t>
+  </si>
+  <si>
+    <t>For the U.S. model, we assume the balance of system costs remain constant throughout the model run.</t>
+  </si>
+  <si>
+    <t>2018 to 2012 USD</t>
+  </si>
+  <si>
+    <t>2010 to 2012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="166" formatCode="###0;###0"/>
+    <numFmt numFmtId="167" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +408,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +443,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -333,6 +500,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -354,7 +663,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,16 +692,102 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,7 +822,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -756,7 +1150,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -813,7 +1206,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1093,191 +1492,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="27" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="28" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="29" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="30" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="15">
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="53">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{056F19C5-E00F-4A6C-BAD9-6C5A07DDAC26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC1DA6-3EF0-487D-914E-530D4C0FFFF7}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.59765625" style="15" customWidth="1"/>
+    <col min="2" max="13" width="11.265625" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="31">
+        <v>50160000</v>
+      </c>
+      <c r="C4" s="32">
+        <v>209</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="E4" s="34">
+        <v>25080000</v>
+      </c>
+      <c r="F4" s="32">
+        <v>209</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="34">
+        <v>12540000</v>
+      </c>
+      <c r="I4" s="32">
+        <v>209</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0.21</v>
+      </c>
+      <c r="K4" s="34">
+        <v>6270000</v>
+      </c>
+      <c r="L4" s="32">
+        <v>209</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4200000</v>
+      </c>
+      <c r="C5" s="32">
+        <v>18</v>
+      </c>
+      <c r="D5" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="34">
+        <v>4200000</v>
+      </c>
+      <c r="F5" s="32">
+        <v>35</v>
+      </c>
+      <c r="G5" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="34">
+        <v>4200000</v>
+      </c>
+      <c r="I5" s="32">
+        <v>70</v>
+      </c>
+      <c r="J5" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K5" s="34">
+        <v>4200000</v>
+      </c>
+      <c r="L5" s="32">
+        <v>140</v>
+      </c>
+      <c r="M5" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="31">
+        <v>3121131</v>
+      </c>
+      <c r="C6" s="32">
+        <v>13</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1813452</v>
+      </c>
+      <c r="F6" s="32">
+        <v>15</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1159612</v>
+      </c>
+      <c r="I6" s="32">
+        <v>19</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="34">
+        <v>832692</v>
+      </c>
+      <c r="L6" s="32">
+        <v>28</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8602825</v>
+      </c>
+      <c r="C7" s="32">
+        <v>36</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6119167</v>
+      </c>
+      <c r="F7" s="32">
+        <v>51</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="34">
+        <v>4877337</v>
+      </c>
+      <c r="I7" s="32">
+        <v>81</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="34">
+        <v>4256423</v>
+      </c>
+      <c r="L7" s="32">
+        <v>142</v>
+      </c>
+      <c r="M7" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="31">
+        <v>5479149</v>
+      </c>
+      <c r="C8" s="32">
+        <v>23</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4322275</v>
+      </c>
+      <c r="F8" s="32">
+        <v>36</v>
+      </c>
+      <c r="G8" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3743838</v>
+      </c>
+      <c r="I8" s="32">
+        <v>62</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="34">
+        <v>3454619</v>
+      </c>
+      <c r="L8" s="32">
+        <v>115</v>
+      </c>
+      <c r="M8" s="33">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2775545</v>
+      </c>
+      <c r="C9" s="32">
+        <v>12</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="34">
+        <v>1948565</v>
+      </c>
+      <c r="F9" s="32">
+        <v>16</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="34">
+        <v>1535075</v>
+      </c>
+      <c r="I9" s="32">
+        <v>26</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="34">
+        <v>1328330</v>
+      </c>
+      <c r="L9" s="32">
+        <v>44</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="31">
+        <v>5293460</v>
+      </c>
+      <c r="C10" s="32">
+        <v>22</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3083292</v>
+      </c>
+      <c r="F10" s="32">
+        <v>26</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="34">
+        <v>1978209</v>
+      </c>
+      <c r="I10" s="32">
+        <v>33</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="K10" s="34">
+        <v>1425667</v>
+      </c>
+      <c r="L10" s="32">
+        <v>48</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="36">
+        <v>79632110</v>
+      </c>
+      <c r="C11" s="37">
+        <v>332</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1.33</v>
+      </c>
+      <c r="E11" s="39">
+        <v>46566751</v>
+      </c>
+      <c r="F11" s="37">
+        <v>388</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.78</v>
+      </c>
+      <c r="H11" s="39">
+        <v>30034071</v>
+      </c>
+      <c r="I11" s="37">
+        <v>501</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="39">
+        <v>21767732</v>
+      </c>
+      <c r="L11" s="37">
+        <v>726</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="41">
+        <v>250000</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
+        <v>250000</v>
+      </c>
+      <c r="F12" s="42">
+        <v>2</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>250000</v>
+      </c>
+      <c r="I12" s="42">
+        <v>4</v>
+      </c>
+      <c r="J12" s="43">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>250000</v>
+      </c>
+      <c r="L12" s="42">
+        <v>8</v>
+      </c>
+      <c r="M12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="31">
+        <v>295289</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>295289</v>
+      </c>
+      <c r="F13" s="32">
+        <v>2</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
+        <v>295289</v>
+      </c>
+      <c r="I13" s="32">
+        <v>5</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34">
+        <v>295289</v>
+      </c>
+      <c r="L13" s="32">
+        <v>10</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1802363</v>
+      </c>
+      <c r="C14" s="32">
+        <v>8</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1802363</v>
+      </c>
+      <c r="F14" s="32">
+        <v>15</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1802363</v>
+      </c>
+      <c r="I14" s="32">
+        <v>30</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="K14" s="34">
+        <v>1802363</v>
+      </c>
+      <c r="L14" s="32">
+        <v>60</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2477135</v>
+      </c>
+      <c r="C15" s="32">
+        <v>10</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1476303</v>
+      </c>
+      <c r="F15" s="32">
+        <v>12</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="34">
+        <v>975887</v>
+      </c>
+      <c r="I15" s="32">
+        <v>16</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="34">
+        <v>725679</v>
+      </c>
+      <c r="L15" s="32">
+        <v>24</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="31">
+        <v>2477135</v>
+      </c>
+      <c r="C16" s="32">
+        <v>10</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1476303</v>
+      </c>
+      <c r="F16" s="32">
+        <v>12</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="34">
+        <v>975887</v>
+      </c>
+      <c r="I16" s="32">
+        <v>16</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="34">
+        <v>725679</v>
+      </c>
+      <c r="L16" s="32">
+        <v>24</v>
+      </c>
+      <c r="M16" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="31">
+        <v>4346702</v>
+      </c>
+      <c r="C17" s="32">
+        <v>18</v>
+      </c>
+      <c r="D17" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2593350</v>
+      </c>
+      <c r="F17" s="32">
+        <v>22</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.04</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1716675</v>
+      </c>
+      <c r="I17" s="32">
+        <v>29</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="34">
+        <v>1278337</v>
+      </c>
+      <c r="L17" s="32">
+        <v>43</v>
+      </c>
+      <c r="M17" s="33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="46">
+        <v>11648623</v>
+      </c>
+      <c r="C18" s="47">
+        <v>49</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0.19</v>
+      </c>
+      <c r="E18" s="49">
+        <v>7893608</v>
+      </c>
+      <c r="F18" s="47">
+        <v>66</v>
+      </c>
+      <c r="G18" s="48">
+        <v>0.13</v>
+      </c>
+      <c r="H18" s="49">
+        <v>6016101</v>
+      </c>
+      <c r="I18" s="47">
+        <v>100</v>
+      </c>
+      <c r="J18" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="49">
+        <v>5077347</v>
+      </c>
+      <c r="L18" s="47">
+        <v>169</v>
+      </c>
+      <c r="M18" s="48">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="51">
+        <f>SUM(D5:D9,D12:D17)</f>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="14">
+        <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
+        <v>2.1272727272727273E-2</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="51">
+        <f>SUM(D22:D23)</f>
+        <v>0.60127272727272707</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="9">
+        <f>D24*10^6</f>
+        <v>601272.72727272706</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D25*About!$A$33</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1285,12 +2530,12 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>2010</v>
       </c>
@@ -1299,7 +2544,7 @@
         <v>433.0387640541885</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>2011</v>
       </c>
@@ -1308,7 +2553,7 @@
         <v>409.22947853151709</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>2012</v>
       </c>
@@ -1317,7 +2562,7 @@
         <v>386.3720977709163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>2013</v>
       </c>
@@ -1326,7 +2571,7 @@
         <v>364.4666217721533</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -1335,7 +2580,7 @@
         <v>343.51305053569376</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
@@ -1344,7 +2589,7 @@
         <v>323.51138406107202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>2016</v>
       </c>
@@ -1353,7 +2598,7 @@
         <v>304.46162234828807</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>2017</v>
       </c>
@@ -1362,7 +2607,7 @@
         <v>286.36376539757475</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1370,7 +2615,7 @@
         <v>269.83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
@@ -1379,7 +2624,7 @@
         <v>253.02376578282565</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1387,7 +2632,7 @@
         <v>236.56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>2021</v>
       </c>
@@ -1396,7 +2641,7 @@
         <v>223.49138521566056</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -1404,7 +2649,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>2023</v>
       </c>
@@ -1413,7 +2658,7 @@
         <v>197.76662369631231</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -1421,7 +2666,7 @@
         <v>186.83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>2025</v>
       </c>
@@ -1430,7 +2675,7 @@
         <v>175.84948122501373</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -1438,7 +2683,7 @@
         <v>166.37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>2027</v>
       </c>
@@ -1447,7 +2692,7 @@
         <v>157.73995780176483</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -1455,7 +2700,7 @@
         <v>149.96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>2029</v>
       </c>
@@ -1464,7 +2709,7 @@
         <v>143.4380534265656</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2030</v>
       </c>
@@ -1472,7 +2717,7 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>2031</v>
       </c>
@@ -1484,7 +2729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>2032</v>
       </c>
@@ -1495,7 +2740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>2033</v>
       </c>
@@ -1504,7 +2749,7 @@
         <v>131.91999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>2034</v>
       </c>
@@ -1512,7 +2757,7 @@
         <v>130.38999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>2035</v>
       </c>
@@ -1521,7 +2766,7 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2036</v>
       </c>
@@ -1529,7 +2774,7 @@
         <v>127.93</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>2037</v>
       </c>
@@ -1538,7 +2783,7 @@
         <v>126.855</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>2038</v>
       </c>
@@ -1546,7 +2791,7 @@
         <v>125.78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>2039</v>
       </c>
@@ -1555,7 +2800,7 @@
         <v>124.77000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="15">
         <v>2040</v>
       </c>
@@ -1563,7 +2808,7 @@
         <v>123.76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>2041</v>
       </c>
@@ -1572,7 +2817,7 @@
         <v>122.68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="15">
         <v>2042</v>
       </c>
@@ -1580,7 +2825,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>2043</v>
       </c>
@@ -1589,7 +2834,7 @@
         <v>120.55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="15">
         <v>2044</v>
       </c>
@@ -1597,7 +2842,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="15">
         <v>2045</v>
       </c>
@@ -1606,7 +2851,7 @@
         <v>118.49000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>2046</v>
       </c>
@@ -1614,7 +2859,7 @@
         <v>117.48</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="15">
         <v>2047</v>
       </c>
@@ -1623,7 +2868,7 @@
         <v>116.495</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>2048</v>
       </c>
@@ -1631,7 +2876,7 @@
         <v>115.51</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="15">
         <v>2049</v>
       </c>
@@ -1640,7 +2885,7 @@
         <v>114.56</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>2050</v>
       </c>
@@ -1648,28 +2893,28 @@
         <v>113.61</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +2928,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +2939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>603</v>
       </c>
@@ -1702,11 +2947,11 @@
         <v>2010</v>
       </c>
       <c r="C60" s="14">
-        <f>A60*About!$A$23</f>
+        <f>A60*About!$A$32</f>
         <v>636.16499999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>779</v>
       </c>
@@ -1714,11 +2959,11 @@
         <v>2010</v>
       </c>
       <c r="C61" s="14">
-        <f>A61*About!$A$23</f>
+        <f>A61*About!$A$32</f>
         <v>821.84499999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>711</v>
       </c>
@@ -1726,11 +2971,11 @@
         <v>2010</v>
       </c>
       <c r="C62" s="14">
-        <f>A62*About!$A$23</f>
+        <f>A62*About!$A$32</f>
         <v>750.1049999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>707</v>
       </c>
@@ -1738,11 +2983,11 @@
         <v>2010</v>
       </c>
       <c r="C63" s="14">
-        <f>A63*About!$A$23</f>
+        <f>A63*About!$A$32</f>
         <v>745.88499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>637</v>
       </c>
@@ -1750,11 +2995,11 @@
         <v>2010</v>
       </c>
       <c r="C64" s="14">
-        <f>A64*About!$A$23</f>
+        <f>A64*About!$A$32</f>
         <v>672.03499999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C65" s="17">
         <f>AVERAGE(C60:C64)</f>
         <v>725.20699999999999</v>
@@ -1763,32 +3008,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -1796,12 +3041,12 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" t="s">
         <v>3</v>
@@ -1810,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="8">
         <v>2010</v>
       </c>
@@ -1823,7 +3068,7 @@
         <v>725.20699999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="8">
         <v>2011</v>
       </c>
@@ -1836,7 +3081,7 @@
         <v>701.39771447732858</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="8">
         <v>2012</v>
       </c>
@@ -1849,7 +3094,7 @@
         <v>678.54033371672779</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="8">
         <v>2013</v>
       </c>
@@ -1862,7 +3107,7 @@
         <v>656.63485771796479</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="8">
         <v>2014</v>
       </c>
@@ -1875,7 +3120,7 @@
         <v>635.68128648150525</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="8">
         <v>2015</v>
       </c>
@@ -1888,7 +3133,7 @@
         <v>615.67962000688351</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="8">
         <v>2016</v>
       </c>
@@ -1901,7 +3146,7 @@
         <v>596.62985829409956</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="8">
         <v>2017</v>
       </c>
@@ -1914,7 +3159,7 @@
         <v>578.53200134338624</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="8">
         <v>2018</v>
       </c>
@@ -1927,7 +3172,7 @@
         <v>561.99823594581153</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="8">
         <v>2019</v>
       </c>
@@ -1940,7 +3185,7 @@
         <v>545.19200172863714</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="8">
         <v>2020</v>
       </c>
@@ -1953,7 +3198,7 @@
         <v>528.72823594581155</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="8">
         <v>2021</v>
       </c>
@@ -1966,7 +3211,7 @@
         <v>515.65962116147205</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="8">
         <v>2022</v>
       </c>
@@ -1979,7 +3224,7 @@
         <v>502.56823594581147</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="8">
         <v>2023</v>
       </c>
@@ -1992,7 +3237,7 @@
         <v>489.9348596421238</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="8">
         <v>2024</v>
       </c>
@@ -2005,7 +3250,7 @@
         <v>478.99823594581153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="8">
         <v>2025</v>
       </c>
@@ -2018,7 +3263,7 @@
         <v>468.01771717082522</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="8">
         <v>2026</v>
       </c>
@@ -2031,7 +3276,7 @@
         <v>458.53823594581149</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="8">
         <v>2027</v>
       </c>
@@ -2044,7 +3289,7 @@
         <v>449.90819374757632</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="8">
         <v>2028</v>
       </c>
@@ -2057,7 +3302,7 @@
         <v>442.12823594581153</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="8">
         <v>2029</v>
       </c>
@@ -2070,7 +3315,7 @@
         <v>435.60628937237709</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="8">
         <v>2030</v>
       </c>
@@ -2083,7 +3328,7 @@
         <v>429.8482359458115</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="8">
         <v>2031</v>
       </c>
@@ -2096,7 +3341,7 @@
         <v>427.73323594581149</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
         <v>2032</v>
       </c>
@@ -2109,7 +3354,7 @@
         <v>425.61823594581148</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
         <v>2033</v>
       </c>
@@ -2122,7 +3367,7 @@
         <v>424.08823594581145</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="8">
         <v>2034</v>
       </c>
@@ -2135,7 +3380,7 @@
         <v>422.55823594581148</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="8">
         <v>2035</v>
       </c>
@@ -2148,7 +3393,7 @@
         <v>421.32823594581146</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="8">
         <v>2036</v>
       </c>
@@ -2161,7 +3406,7 @@
         <v>420.0982359458115</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="8">
         <v>2037</v>
       </c>
@@ -2174,7 +3419,7 @@
         <v>419.02323594581151</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="8">
         <v>2038</v>
       </c>
@@ -2187,7 +3432,7 @@
         <v>417.94823594581146</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="8">
         <v>2039</v>
       </c>
@@ -2200,7 +3445,7 @@
         <v>416.93823594581147</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="8">
         <v>2040</v>
       </c>
@@ -2213,7 +3458,7 @@
         <v>415.92823594581148</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="8">
         <v>2041</v>
       </c>
@@ -2226,7 +3471,7 @@
         <v>414.8482359458115</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="8">
         <v>2042</v>
       </c>
@@ -2239,7 +3484,7 @@
         <v>413.76823594581151</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="8">
         <v>2043</v>
       </c>
@@ -2252,7 +3497,7 @@
         <v>412.7182359458115</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="8">
         <v>2044</v>
       </c>
@@ -2265,7 +3510,7 @@
         <v>411.66823594581149</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="8">
         <v>2045</v>
       </c>
@@ -2278,7 +3523,7 @@
         <v>410.6582359458115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="8">
         <v>2046</v>
       </c>
@@ -2291,7 +3536,7 @@
         <v>409.64823594581151</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="8">
         <v>2047</v>
       </c>
@@ -2304,7 +3549,7 @@
         <v>408.66323594581149</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="8">
         <v>2048</v>
       </c>
@@ -2317,7 +3562,7 @@
         <v>407.67823594581148</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="8">
         <v>2049</v>
       </c>
@@ -2330,7 +3575,7 @@
         <v>406.72823594581149</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="8">
         <v>2050</v>
       </c>
@@ -2349,8 +3594,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
@@ -2358,13 +3603,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2372,7 +3617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>Calculations!A80</f>
         <v>2014</v>
@@ -2382,7 +3627,7 @@
         <v>635681.28648150526</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>Calculations!A81</f>
         <v>2015</v>
@@ -2392,7 +3637,7 @@
         <v>615679.62000688352</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>Calculations!A82</f>
         <v>2016</v>
@@ -2402,7 +3647,7 @@
         <v>596629.85829409957</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>Calculations!A83</f>
         <v>2017</v>
@@ -2412,7 +3657,7 @@
         <v>578532.00134338625</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>Calculations!A84</f>
         <v>2018</v>
@@ -2422,7 +3667,7 @@
         <v>561998.2359458115</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>Calculations!A85</f>
         <v>2019</v>
@@ -2432,7 +3677,7 @@
         <v>545192.00172863714</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>Calculations!A86</f>
         <v>2020</v>
@@ -2442,7 +3687,7 @@
         <v>528728.2359458115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>Calculations!A87</f>
         <v>2021</v>
@@ -2452,7 +3697,7 @@
         <v>515659.62116147205</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>Calculations!A88</f>
         <v>2022</v>
@@ -2462,7 +3707,7 @@
         <v>502568.2359458115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>Calculations!A89</f>
         <v>2023</v>
@@ -2472,7 +3717,7 @@
         <v>489934.8596421238</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>Calculations!A90</f>
         <v>2024</v>
@@ -2482,7 +3727,7 @@
         <v>478998.23594581155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>Calculations!A91</f>
         <v>2025</v>
@@ -2492,7 +3737,7 @@
         <v>468017.71717082523</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>Calculations!A92</f>
         <v>2026</v>
@@ -2502,7 +3747,7 @@
         <v>458538.2359458115</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>Calculations!A93</f>
         <v>2027</v>
@@ -2512,7 +3757,7 @@
         <v>449908.19374757633</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>Calculations!A94</f>
         <v>2028</v>
@@ -2522,7 +3767,7 @@
         <v>442128.23594581155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>Calculations!A95</f>
         <v>2029</v>
@@ -2532,7 +3777,7 @@
         <v>435606.2893723771</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>Calculations!A96</f>
         <v>2030</v>
@@ -2542,7 +3787,7 @@
         <v>429848.2359458115</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <f>Calculations!A97</f>
         <v>2031</v>
@@ -2552,7 +3797,7 @@
         <v>427733.2359458115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <f>Calculations!A98</f>
         <v>2032</v>
@@ -2562,7 +3807,7 @@
         <v>425618.2359458115</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <f>Calculations!A99</f>
         <v>2033</v>
@@ -2572,7 +3817,7 @@
         <v>424088.23594581144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <f>Calculations!A100</f>
         <v>2034</v>
@@ -2582,7 +3827,7 @@
         <v>422558.2359458115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <f>Calculations!A101</f>
         <v>2035</v>
@@ -2592,7 +3837,7 @@
         <v>421328.23594581144</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <f>Calculations!A102</f>
         <v>2036</v>
@@ -2602,7 +3847,7 @@
         <v>420098.2359458115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <f>Calculations!A103</f>
         <v>2037</v>
@@ -2612,7 +3857,7 @@
         <v>419023.2359458115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <f>Calculations!A104</f>
         <v>2038</v>
@@ -2622,7 +3867,7 @@
         <v>417948.23594581144</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <f>Calculations!A105</f>
         <v>2039</v>
@@ -2632,7 +3877,7 @@
         <v>416938.2359458115</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <f>Calculations!A106</f>
         <v>2040</v>
@@ -2642,7 +3887,7 @@
         <v>415928.2359458115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <f>Calculations!A107</f>
         <v>2041</v>
@@ -2652,7 +3897,7 @@
         <v>414848.2359458115</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <f>Calculations!A108</f>
         <v>2042</v>
@@ -2662,7 +3907,7 @@
         <v>413768.2359458115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <f>Calculations!A109</f>
         <v>2043</v>
@@ -2672,7 +3917,7 @@
         <v>412718.2359458115</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <f>Calculations!A110</f>
         <v>2044</v>
@@ -2682,7 +3927,7 @@
         <v>411668.2359458115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <f>Calculations!A111</f>
         <v>2045</v>
@@ -2692,7 +3937,7 @@
         <v>410658.2359458115</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <f>Calculations!A112</f>
         <v>2046</v>
@@ -2702,7 +3947,7 @@
         <v>409648.2359458115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <f>Calculations!A113</f>
         <v>2047</v>
@@ -2712,7 +3957,7 @@
         <v>408663.2359458115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <f>Calculations!A114</f>
         <v>2048</v>
@@ -2722,7 +3967,7 @@
         <v>407678.2359458115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <f>Calculations!A115</f>
         <v>2049</v>
@@ -2732,7 +3977,7 @@
         <v>406728.2359458115</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <f>Calculations!A116</f>
         <v>2050</v>
@@ -2740,6 +3985,269 @@
       <c r="B38" s="9">
         <f>Calculations!C116*1000</f>
         <v>405778.2359458115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8A726-93DE-4B51-B5BD-3D6D2A03C692}">
+  <sheetPr>
+    <tabColor rgb="FF003399"/>
+  </sheetPr>
+  <dimension ref="A1:AH2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.86328125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.06640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="15">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="15">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="15">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="15">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="15">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="15">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="15">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="15">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="15">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="15">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="15">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="15">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="15">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="15">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="15">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="15">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="15">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="15">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="15">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="15">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="15">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="15">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="15">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="15">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="15">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'Balance of System Calculations'!D26</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="C2" s="9">
+        <f>$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:AH2" si="0">$B2</f>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="N2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="O2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="Z2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AA2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AB2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AC2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AD2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AE2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AF2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AG2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
+      </c>
+      <c r="AH2" s="9">
+        <f t="shared" si="0"/>
+        <v>549760.10443936056</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B0A74C-997C-45AC-9EF3-E33C93D03C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="45" windowWidth="15502" windowHeight="9878" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="45" windowWidth="15503" windowHeight="9878"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="BCpUC" sheetId="3" r:id="rId4"/>
     <sheet name="BBoSCpUC" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>$/kW</t>
   </si>
@@ -319,11 +318,17 @@
   <si>
     <t>2010 to 2012</t>
   </si>
+  <si>
+    <t>India:US cost adjustment</t>
+  </si>
+  <si>
+    <t>see "scaling-factors.xlsx in the InputData folder for source information.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
@@ -695,15 +700,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -778,16 +774,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,11 +1497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1649,7 +1654,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="53">
+      <c r="A33" s="50">
         <v>0.9143273584567535</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -1662,21 +1667,36 @@
       </c>
       <c r="B34" s="15"/>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0.50596615326007366</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{056F19C5-E00F-4A6C-BAD9-6C5A07DDAC26}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFC1DA6-3EF0-487D-914E-530D4C0FFFF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1706,685 +1726,685 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>50160000</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="29">
         <v>209</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <v>0.84</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>25080000</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="29">
         <v>209</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="30">
         <v>0.42</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <v>12540000</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="29">
         <v>209</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="30">
         <v>0.21</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="31">
         <v>6270000</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="29">
         <v>209</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="30">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>4200000</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>18</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>4200000</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="29">
         <v>35</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <v>4200000</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>70</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="31">
         <v>4200000</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="29">
         <v>140</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>3121131</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>13</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>0.05</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>1813452</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="29">
         <v>15</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="30">
         <v>0.03</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <v>1159612</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="29">
         <v>19</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="30">
         <v>0.02</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="31">
         <v>832692</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="29">
         <v>28</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="30">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>8602825</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>36</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>6119167</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="29">
         <v>51</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>0.1</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="31">
         <v>4877337</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="29">
         <v>81</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="30">
         <v>0.08</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="31">
         <v>4256423</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="29">
         <v>142</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>5479149</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>23</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <v>0.09</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>4322275</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <v>36</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <v>3743838</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="29">
         <v>62</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="30">
         <v>0.06</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="31">
         <v>3454619</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="29">
         <v>115</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="30">
         <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>2775545</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>12</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>0.05</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>1948565</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="29">
         <v>16</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="30">
         <v>0.03</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="31">
         <v>1535075</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="29">
         <v>26</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="30">
         <v>0.03</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="31">
         <v>1328330</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="29">
         <v>44</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>5293460</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>22</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>0.09</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>3083292</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="29">
         <v>26</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="30">
         <v>0.05</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <v>1978209</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="29">
         <v>33</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="30">
         <v>0.03</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="31">
         <v>1425667</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="29">
         <v>48</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="33">
         <v>79632110</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="34">
         <v>332</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="35">
         <v>1.33</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <v>46566751</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="34">
         <v>388</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="35">
         <v>0.78</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="36">
         <v>30034071</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="34">
         <v>501</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <v>0.5</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="36">
         <v>21767732</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="34">
         <v>726</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="35">
         <v>0.36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="38">
         <v>250000</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>1</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="40">
         <v>0</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>250000</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="39">
         <v>2</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="40">
         <v>0</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="41">
         <v>250000</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="39">
         <v>4</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="40">
         <v>0</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="41">
         <v>250000</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="39">
         <v>8</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>295289</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <v>0</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>295289</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="29">
         <v>2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="30">
         <v>0</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <v>295289</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="29">
         <v>5</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="30">
         <v>0</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="31">
         <v>295289</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="29">
         <v>10</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>1802363</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <v>0.03</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>1802363</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="29">
         <v>15</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="30">
         <v>0.03</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <v>1802363</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="29">
         <v>30</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="30">
         <v>0.03</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="31">
         <v>1802363</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="29">
         <v>60</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="30">
         <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>2477135</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="29">
         <v>10</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <v>0.04</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <v>1476303</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="29">
         <v>12</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="30">
         <v>0.02</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="31">
         <v>975887</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="29">
         <v>16</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="30">
         <v>0.02</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="31">
         <v>725679</v>
       </c>
-      <c r="L15" s="32">
+      <c r="L15" s="29">
         <v>24</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="30">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>2477135</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>10</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <v>0.04</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <v>1476303</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <v>12</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="30">
         <v>0.02</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="31">
         <v>975887</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="29">
         <v>16</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="30">
         <v>0.02</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="31">
         <v>725679</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="29">
         <v>24</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="30">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>4346702</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>18</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>2593350</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="29">
         <v>22</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="30">
         <v>0.04</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="31">
         <v>1716675</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="29">
         <v>29</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="30">
         <v>0.03</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <v>1278337</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="29">
         <v>43</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="30">
         <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="43">
         <v>11648623</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="44">
         <v>49</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="45">
         <v>0.19</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="46">
         <v>7893608</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="44">
         <v>66</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="45">
         <v>0.13</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="46">
         <v>6016101</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="44">
         <v>100</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="45">
         <v>0.1</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="46">
         <v>5077347</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="44">
         <v>169</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="45">
         <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2392,11 +2412,11 @@
       <c r="A22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="48">
         <f>SUM(D5:D9,D12:D17)</f>
         <v>0.57999999999999985</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2408,7 +2428,7 @@
         <f>D10*SUM(D5:D7)/SUM(D4:D7)</f>
         <v>2.1272727272727273E-2</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2416,11 +2436,11 @@
       <c r="A24" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="48">
         <f>SUM(D22:D23)</f>
         <v>0.60127272727272707</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="49" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2432,7 +2452,7 @@
         <f>D24*10^6</f>
         <v>601272.72727272706</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="49" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2444,7 +2464,7 @@
         <f>D25*About!$A$33</f>
         <v>549760.10443936056</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="49" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2466,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,13 +3615,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3623,8 +3645,8 @@
         <v>2014</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations!C80*1000</f>
-        <v>635681.28648150526</v>
+        <f>Calculations!C80*1000*About!$A$38</f>
+        <v>321633.21522046207</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -3633,8 +3655,8 @@
         <v>2015</v>
       </c>
       <c r="B3" s="9">
-        <f>Calculations!C81*1000</f>
-        <v>615679.62000688352</v>
+        <f>Calculations!C81*1000*About!$A$38</f>
+        <v>311513.04897550674</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -3643,8 +3665,8 @@
         <v>2016</v>
       </c>
       <c r="B4" s="9">
-        <f>Calculations!C82*1000</f>
-        <v>596629.85829409957</v>
+        <f>Calculations!C82*1000*About!$A$38</f>
+        <v>301874.51432116842</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -3653,8 +3675,8 @@
         <v>2017</v>
       </c>
       <c r="B5" s="9">
-        <f>Calculations!C83*1000</f>
-        <v>578532.00134338625</v>
+        <f>Calculations!C83*1000*About!$A$38</f>
+        <v>292717.61125756492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -3663,8 +3685,8 @@
         <v>2018</v>
       </c>
       <c r="B6" s="9">
-        <f>Calculations!C84*1000</f>
-        <v>561998.2359458115</v>
+        <f>Calculations!C84*1000*About!$A$38</f>
+        <v>284352.08558044949</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -3673,8 +3695,8 @@
         <v>2019</v>
       </c>
       <c r="B7" s="9">
-        <f>Calculations!C85*1000</f>
-        <v>545192.00172863714</v>
+        <f>Calculations!C85*1000*About!$A$38</f>
+        <v>275848.69990279799</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -3683,8 +3705,8 @@
         <v>2020</v>
       </c>
       <c r="B8" s="9">
-        <f>Calculations!C86*1000</f>
-        <v>528728.2359458115</v>
+        <f>Calculations!C86*1000*About!$A$38</f>
+        <v>267518.59166148683</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3693,8 +3715,8 @@
         <v>2021</v>
       </c>
       <c r="B9" s="9">
-        <f>Calculations!C87*1000</f>
-        <v>515659.62116147205</v>
+        <f>Calculations!C87*1000*About!$A$38</f>
+        <v>260906.3149106169</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -3703,8 +3725,8 @@
         <v>2022</v>
       </c>
       <c r="B10" s="9">
-        <f>Calculations!C88*1000</f>
-        <v>502568.2359458115</v>
+        <f>Calculations!C88*1000*About!$A$38</f>
+        <v>254282.51709220331</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -3713,8 +3735,8 @@
         <v>2023</v>
       </c>
       <c r="B11" s="9">
-        <f>Calculations!C89*1000</f>
-        <v>489934.8596421238</v>
+        <f>Calculations!C89*1000*About!$A$38</f>
+        <v>247890.45628113949</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -3723,8 +3745,8 @@
         <v>2024</v>
       </c>
       <c r="B12" s="9">
-        <f>Calculations!C90*1000</f>
-        <v>478998.23594581155</v>
+        <f>Calculations!C90*1000*About!$A$38</f>
+        <v>242356.89485986342</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -3733,8 +3755,8 @@
         <v>2025</v>
       </c>
       <c r="B13" s="9">
-        <f>Calculations!C91*1000</f>
-        <v>468017.71717082523</v>
+        <f>Calculations!C91*1000*About!$A$38</f>
+        <v>236801.12401448356</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -3743,8 +3765,8 @@
         <v>2026</v>
       </c>
       <c r="B14" s="9">
-        <f>Calculations!C92*1000</f>
-        <v>458538.2359458115</v>
+        <f>Calculations!C92*1000*About!$A$38</f>
+        <v>232004.82736416228</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -3753,8 +3775,8 @@
         <v>2027</v>
       </c>
       <c r="B15" s="9">
-        <f>Calculations!C93*1000</f>
-        <v>449908.19374757633</v>
+        <f>Calculations!C93*1000*About!$A$38</f>
+        <v>227638.31811064912</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -3763,8 +3785,8 @@
         <v>2028</v>
       </c>
       <c r="B16" s="9">
-        <f>Calculations!C94*1000</f>
-        <v>442128.23594581155</v>
+        <f>Calculations!C94*1000*About!$A$38</f>
+        <v>223701.9227891645</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -3773,8 +3795,8 @@
         <v>2029</v>
       </c>
       <c r="B17" s="9">
-        <f>Calculations!C95*1000</f>
-        <v>435606.2893723771</v>
+        <f>Calculations!C95*1000*About!$A$38</f>
+        <v>220402.03856963615</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -3783,8 +3805,8 @@
         <v>2030</v>
       </c>
       <c r="B18" s="9">
-        <f>Calculations!C96*1000</f>
-        <v>429848.2359458115</v>
+        <f>Calculations!C96*1000*About!$A$38</f>
+        <v>217488.65842713075</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -3793,8 +3815,8 @@
         <v>2031</v>
       </c>
       <c r="B19" s="9">
-        <f>Calculations!C97*1000</f>
-        <v>427733.2359458115</v>
+        <f>Calculations!C97*1000*About!$A$38</f>
+        <v>216418.5400129857</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -3803,8 +3825,8 @@
         <v>2032</v>
       </c>
       <c r="B20" s="9">
-        <f>Calculations!C98*1000</f>
-        <v>425618.2359458115</v>
+        <f>Calculations!C98*1000*About!$A$38</f>
+        <v>215348.42159884065</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -3813,8 +3835,8 @@
         <v>2033</v>
       </c>
       <c r="B21" s="9">
-        <f>Calculations!C99*1000</f>
-        <v>424088.23594581144</v>
+        <f>Calculations!C99*1000*About!$A$38</f>
+        <v>214574.2933843527</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -3823,8 +3845,8 @@
         <v>2034</v>
       </c>
       <c r="B22" s="9">
-        <f>Calculations!C100*1000</f>
-        <v>422558.2359458115</v>
+        <f>Calculations!C100*1000*About!$A$38</f>
+        <v>213800.16516986483</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -3833,8 +3855,8 @@
         <v>2035</v>
       </c>
       <c r="B23" s="9">
-        <f>Calculations!C101*1000</f>
-        <v>421328.23594581144</v>
+        <f>Calculations!C101*1000*About!$A$38</f>
+        <v>213177.82680135491</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -3843,8 +3865,8 @@
         <v>2036</v>
       </c>
       <c r="B24" s="9">
-        <f>Calculations!C102*1000</f>
-        <v>420098.2359458115</v>
+        <f>Calculations!C102*1000*About!$A$38</f>
+        <v>212555.48843284504</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -3853,8 +3875,8 @@
         <v>2037</v>
       </c>
       <c r="B25" s="9">
-        <f>Calculations!C103*1000</f>
-        <v>419023.2359458115</v>
+        <f>Calculations!C103*1000*About!$A$38</f>
+        <v>212011.57481809048</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -3863,8 +3885,8 @@
         <v>2038</v>
       </c>
       <c r="B26" s="9">
-        <f>Calculations!C104*1000</f>
-        <v>417948.23594581144</v>
+        <f>Calculations!C104*1000*About!$A$38</f>
+        <v>211467.66120333585</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -3873,8 +3895,8 @@
         <v>2039</v>
       </c>
       <c r="B27" s="9">
-        <f>Calculations!C105*1000</f>
-        <v>416938.2359458115</v>
+        <f>Calculations!C105*1000*About!$A$38</f>
+        <v>210956.63538854322</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -3883,8 +3905,8 @@
         <v>2040</v>
       </c>
       <c r="B28" s="9">
-        <f>Calculations!C106*1000</f>
-        <v>415928.2359458115</v>
+        <f>Calculations!C106*1000*About!$A$38</f>
+        <v>210445.60957375052</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -3893,8 +3915,8 @@
         <v>2041</v>
       </c>
       <c r="B29" s="9">
-        <f>Calculations!C107*1000</f>
-        <v>414848.2359458115</v>
+        <f>Calculations!C107*1000*About!$A$38</f>
+        <v>209899.16612822967</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -3903,8 +3925,8 @@
         <v>2042</v>
       </c>
       <c r="B30" s="9">
-        <f>Calculations!C108*1000</f>
-        <v>413768.2359458115</v>
+        <f>Calculations!C108*1000*About!$A$38</f>
+        <v>209352.72268270879</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -3913,8 +3935,8 @@
         <v>2043</v>
       </c>
       <c r="B31" s="9">
-        <f>Calculations!C109*1000</f>
-        <v>412718.2359458115</v>
+        <f>Calculations!C109*1000*About!$A$38</f>
+        <v>208821.4582217857</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -3923,8 +3945,8 @@
         <v>2044</v>
       </c>
       <c r="B32" s="9">
-        <f>Calculations!C110*1000</f>
-        <v>411668.2359458115</v>
+        <f>Calculations!C110*1000*About!$A$38</f>
+        <v>208290.19376086263</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -3933,8 +3955,8 @@
         <v>2045</v>
       </c>
       <c r="B33" s="9">
-        <f>Calculations!C111*1000</f>
-        <v>410658.2359458115</v>
+        <f>Calculations!C111*1000*About!$A$38</f>
+        <v>207779.16794606994</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -3943,8 +3965,8 @@
         <v>2046</v>
       </c>
       <c r="B34" s="9">
-        <f>Calculations!C112*1000</f>
-        <v>409648.2359458115</v>
+        <f>Calculations!C112*1000*About!$A$38</f>
+        <v>207268.14213127727</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -3953,8 +3975,8 @@
         <v>2047</v>
       </c>
       <c r="B35" s="9">
-        <f>Calculations!C113*1000</f>
-        <v>408663.2359458115</v>
+        <f>Calculations!C113*1000*About!$A$38</f>
+        <v>206769.76547031611</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -3963,8 +3985,8 @@
         <v>2048</v>
       </c>
       <c r="B36" s="9">
-        <f>Calculations!C114*1000</f>
-        <v>407678.2359458115</v>
+        <f>Calculations!C114*1000*About!$A$38</f>
+        <v>206271.38880935492</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -3973,8 +3995,8 @@
         <v>2049</v>
       </c>
       <c r="B37" s="9">
-        <f>Calculations!C115*1000</f>
-        <v>406728.2359458115</v>
+        <f>Calculations!C115*1000*About!$A$38</f>
+        <v>205790.72096375786</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -3983,8 +4005,8 @@
         <v>2050</v>
       </c>
       <c r="B38" s="9">
-        <f>Calculations!C116*1000</f>
-        <v>405778.2359458115</v>
+        <f>Calculations!C116*1000*About!$A$38</f>
+        <v>205310.05311816078</v>
       </c>
     </row>
   </sheetData>
@@ -3993,14 +4015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8A726-93DE-4B51-B5BD-3D6D2A03C692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4118,136 +4140,136 @@
         <v>48</v>
       </c>
       <c r="B2" s="9">
-        <f>'Balance of System Calculations'!D26</f>
-        <v>549760.10443936056</v>
+        <f>'Balance of System Calculations'!D26*About!$A$38</f>
+        <v>278160.00525903958</v>
       </c>
       <c r="C2" s="9">
         <f>$B2</f>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="G2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="K2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="L2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="M2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="O2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="Q2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="R2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="S2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="T2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="U2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="V2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="W2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="X2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="Y2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="Z2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AA2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AB2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AC2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AD2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AF2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AG2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
       <c r="AH2" s="9">
         <f t="shared" si="0"/>
-        <v>549760.10443936056</v>
+        <v>278160.00525903958</v>
       </c>
     </row>
   </sheetData>
